--- a/SeminarDateien/Classifier.xlsx
+++ b/SeminarDateien/Classifier.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SeminarDateien/Classifier.xlsx
+++ b/SeminarDateien/Classifier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Wir gehen davon aus, dass alle Ströme in ein System positiv sind und alle nach draußen negativ.</t>
+  </si>
+  <si>
+    <t>Amount[kg]</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +546,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
